--- a/ol-handback/OpenLocalizationTestOrg/docs/master/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/docs/master/handback-status.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>File Name</t>
   </si>
@@ -69,21 +69,30 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>index.md</t>
+  </si>
+  <si>
+    <t>docs\core\docker\index.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:05:23</t>
+  </si>
+  <si>
+    <t>docs\csharp\whats-new\index.md</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.md</t>
   </si>
   <si>
     <t>includes\tlasharptla-mcxmlnsv1-md.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2018-03-13 10:14:50</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.md</t>
   </si>
   <si>
@@ -150,34 +159,49 @@
     <t>Error Detail</t>
   </si>
   <si>
+    <t>docs\core\docker</t>
+  </si>
+  <si>
+    <t>p1-ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 06:47:17</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2019-04-08 09:09:58</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>docs\csharp\whats-new</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.de-de.xlf</t>
+  </si>
+  <si>
     <t>includes</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.de-de.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 03:21:21</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2018-03-13 04:53:42</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>docs\framework\wpf\advanced\mc-processcontent-attribute.md,docs\framework\wpf\advanced\mc-ignorable-attribute.md</t>
   </si>
   <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.de-de.xlf</t>
   </si>
   <si>
-    <t>docs\framework\xaml-services\x-static-markup-extension.md,docs\framework\wpf\advanced\propertypath-xaml-syntax.md,docs\framework\wpf\advanced\xaml-overview-wpf.md,docs\framework\wpf\advanced\xaml-namespaces-and-namespace-mapping-for-wpf-xaml.md</t>
+    <t>docs\framework\wpf\advanced\xaml-overview-wpf.md,docs\framework\wpf\advanced\xaml-namespaces-and-namespace-mapping-for-wpf-xaml.md,docs\framework\wpf\advanced\propertypath-xaml-syntax.md,docs\framework\xaml-services\x-static-markup-extension.md</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.de-de.xlf</t>
@@ -186,130 +210,193 @@
     <t>docs\framework\wpf\advanced\xaml-overview-wpf.md</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.es-es.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:06:52</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:10:39</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.es-es.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.es-es.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 06:46:49</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:01:27</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.es-es.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.es-es.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.fr-fr.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:22:08</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:11:20</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.fr-fr.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.fr-fr.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 07:13:40</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:02:43</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.fr-fr.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.fr-fr.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:42:16</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:11:58</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.it-it.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:42:17</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.it-it.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 07:55:35</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:03:49</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.it-it.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.it-it.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:12:38</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.ja-jp.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 07:51:01</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.ja-jp.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 08:19:15</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:04:49</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.ja-jp.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.ja-jp.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 08:06:31</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:13:20</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.ko-kr.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 08:06:32</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.ko-kr.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 08:42:57</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:05:47</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.ko-kr.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.ko-kr.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.ru-ru.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 08:18:34</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:14:00</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.ru-ru.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.ru-ru.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 09:06:28</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:06:40</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.ru-ru.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.ru-ru.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.pt-br.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 08:37:01</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:14:43</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.pt-br.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.pt-br.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 09:27:55</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:07:27</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.pt-br.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.pt-br.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 08:47:52</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:15:29</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2018-03-13 09:51:37</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:08:46</t>
-  </si>
-  <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.zh-cn.xlf</t>
   </si>
   <si>
     <t>tlasharptla-xamlxmlnsv1-md.6177cb995225ffb2140e083e226750461978220e.zh-cn.xlf</t>
   </si>
   <si>
+    <t>index.7e07f39a8d4f9e607f5ed19e92b6620cfd2be93a.zh-tw.xlf</t>
+  </si>
+  <si>
+    <t>2019-04-08 09:16:11</t>
+  </si>
+  <si>
+    <t>index.88379649a9cdfd98eba2bde3248f0569151612f1.zh-tw.xlf</t>
+  </si>
+  <si>
     <t>tlasharptla-mcxmlnsv1-md.0da44c7f9021ca7b6ed65526ce2d3222ed717061.zh-tw.xlf</t>
-  </si>
-  <si>
-    <t>2018-03-13 12:09:46</t>
   </si>
   <si>
     <t>tlasharptla-wpfxmlnsv1-md.cdff45303dd0bf8468a42739b6b542aab25c2802.zh-tw.xlf</t>
@@ -372,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -399,8 +486,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="zh-tw" displayName="zh_tw" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="zh-tw" displayName="zh_tw" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -426,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Overview" displayName="Overview" ref="A1:O4" headerRowCount="1">
-  <autoFilter ref="A1:O4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Overview" displayName="Overview" ref="A1:O6" headerRowCount="1">
+  <autoFilter ref="A1:O6"/>
   <tableColumns count="15">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -450,8 +537,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="es-es" displayName="es_es" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -477,8 +564,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="fr-fr" displayName="fr_fr" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="fr-fr" displayName="fr_fr" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -504,8 +591,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="it-it" displayName="it_it" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="it-it" displayName="it_it" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -531,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ja-jp" displayName="ja_jp" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="ja-jp" displayName="ja_jp" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -558,8 +645,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ko-kr" displayName="ko_kr" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ko-kr" displayName="ko_kr" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -585,8 +672,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ru-ru" displayName="ru_ru" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="ru-ru" displayName="ru_ru" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -612,8 +699,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="pt-br" displayName="pt_br" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="pt-br" displayName="pt_br" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -639,8 +726,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
+  <autoFilter ref="A1:R6"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -667,27 +754,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="37.8379124232701" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="37.8379135131836" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
-    <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
-    <col min="7" max="7" width="29.9777047293527" customWidth="1"/>
-    <col min="8" max="8" width="29.9777047293527" customWidth="1"/>
-    <col min="9" max="9" width="29.9777047293527" customWidth="1"/>
-    <col min="10" max="10" width="29.9777047293527" customWidth="1"/>
-    <col min="11" max="11" width="29.9777047293527" customWidth="1"/>
-    <col min="12" max="12" width="29.9777047293527" customWidth="1"/>
-    <col min="13" max="13" width="29.9777047293527" customWidth="1"/>
-    <col min="14" max="14" width="29.9777047293527" customWidth="1"/>
-    <col min="15" max="15" width="29.5073743547712" customWidth="1"/>
+    <col min="4" max="4" width="13.963942527771" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="7" max="7" width="29.9777050018311" customWidth="1"/>
+    <col min="8" max="8" width="29.9777050018311" customWidth="1"/>
+    <col min="9" max="9" width="29.9777050018311" customWidth="1"/>
+    <col min="10" max="10" width="29.9777050018311" customWidth="1"/>
+    <col min="11" max="11" width="29.9777050018311" customWidth="1"/>
+    <col min="12" max="12" width="29.9777050018311" customWidth="1"/>
+    <col min="13" max="13" width="29.9777050018311" customWidth="1"/>
+    <col min="14" max="14" width="29.9777050018311" customWidth="1"/>
+    <col min="15" max="15" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -783,10 +870,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>17</v>
@@ -827,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>17</v>
@@ -869,11 +956,101 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="includes\tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="includes\tlasharptla-wpfxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="includes\tlasharptla-xamlxmlnsv1-md.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="docs\core\docker\index.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="docs\csharp\whats-new\index.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="includes\tlasharptla-mcxmlnsv1-md.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="includes\tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="includes\tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -884,86 +1061,86 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -977,54 +1154,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -1033,54 +1210,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -1089,59 +1266,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1152,86 +1445,86 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1245,54 +1538,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -1301,54 +1594,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -1357,59 +1650,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1420,86 +1829,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1513,54 +1922,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -1569,54 +1978,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -1625,59 +2034,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1688,86 +2213,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1781,54 +2306,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -1837,54 +2362,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -1893,59 +2418,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1956,86 +2597,86 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2049,54 +2690,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -2105,54 +2746,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -2161,59 +2802,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>46</v>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2224,86 +2981,86 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2317,54 +3074,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -2373,54 +3130,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -2429,59 +3186,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2492,86 +3365,86 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2585,54 +3458,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -2641,54 +3514,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -2697,59 +3570,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -2760,86 +3749,86 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -2853,54 +3842,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -2909,54 +3898,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -2965,59 +3954,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3028,86 +4133,86 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -3121,54 +4226,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -3177,54 +4282,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -3233,59 +4338,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -3296,86 +4517,86 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.7822984967913" customWidth="1"/>
-    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
-    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
-    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
-    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="1" max="1" width="29.782299041748" customWidth="1"/>
+    <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="4" max="4" width="22.6054954528809" customWidth="1"/>
+    <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
+    <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
-    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
-    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
-    <col min="10" max="10" width="29.7822984967913" customWidth="1"/>
+    <col min="8" max="8" width="30.1631603240967" customWidth="1"/>
+    <col min="9" max="9" width="27.2126369476318" customWidth="1"/>
+    <col min="10" max="10" width="29.782299041748" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
-    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
-    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
-    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="12" max="12" width="32.096752166748" customWidth="1"/>
+    <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
+    <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
     <col min="16" max="16" width="40" customWidth="1"/>
-    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
-    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
+    <col min="17" max="17" width="15.850474357605" customWidth="1"/>
+    <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -3389,54 +4610,54 @@
         <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>17</v>
@@ -3445,54 +4666,54 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>17</v>
@@ -3501,59 +4722,175 @@
         <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="index.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="index.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="index.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="index.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="tlasharptla-mcxmlnsv1-md.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="tlasharptla-wpfxmlnsv1-md.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="tlasharptla-xamlxmlnsv1-md.md" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
